--- a/data/hotels_by_city/Houston/Houston_shard_488.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_488.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55639-d575773-Reviews-Motel_6_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Motel-6-Cleveland.h1215235.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,251 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r396417246-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>55639</t>
+  </si>
+  <si>
+    <t>575773</t>
+  </si>
+  <si>
+    <t>396417246</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Cockroach Motel 6!!</t>
+  </si>
+  <si>
+    <t>I will start out by saying I've stayed in many a Motel 6 in my time, and I thoroughly understand that they are a budget motel and will never be like staying in a Hampton Inn. However, this particular Motel 6 is a prime example of why many people perceive the Motel 6 chain as an awful establishment they don't want to go anywhere near. 
+First of all, the first room I was given wouldn't even unlock with the card key I was given. The desk clerk couldn't get it to open either. I was given a second room. After spending no more than an hour in there, I noticed the toilet tank would just randomly start running water from time to time, which was loud and annoying. I knew I wouldn't be able to sleep with that problem, so I asked for yet another room. Upon initial inspection, my third room seemed to have nothing wrong with it. Not so. As soon as the sun went down, I noticed a bug scurrying across the floor. After killing it with my shoe I saw it was a cockroach. Caution lights went off in my mind as I know darn well that there is never just *one* cockroach. I totally get that east Texas has a lot of bugs, but this was ridiculous. I used a cardboard pizza box as a swatter to kill **dozens** of cockroaches the one night I...I will start out by saying I've stayed in many a Motel 6 in my time, and I thoroughly understand that they are a budget motel and will never be like staying in a Hampton Inn. However, this particular Motel 6 is a prime example of why many people perceive the Motel 6 chain as an awful establishment they don't want to go anywhere near. First of all, the first room I was given wouldn't even unlock with the card key I was given. The desk clerk couldn't get it to open either. I was given a second room. After spending no more than an hour in there, I noticed the toilet tank would just randomly start running water from time to time, which was loud and annoying. I knew I wouldn't be able to sleep with that problem, so I asked for yet another room. Upon initial inspection, my third room seemed to have nothing wrong with it. Not so. As soon as the sun went down, I noticed a bug scurrying across the floor. After killing it with my shoe I saw it was a cockroach. Caution lights went off in my mind as I know darn well that there is never just *one* cockroach. I totally get that east Texas has a lot of bugs, but this was ridiculous. I used a cardboard pizza box as a swatter to kill **dozens** of cockroaches the one night I stayed here. I didn't want to touch the floor for fear it was a health hazard. I didn't even want to leave my shoes on the floor. I didn't sleep well at all due to being unnerved by the roach infestation. Before leaving, I shook out all my clothes in my suitcase just in case any roaches had found their way up in there. In addition to that, other problems I noted were that the freezer in the mini-fridge did not keep anything frozen except for the massive amount of freezer ice that needed to be defrosted. All of the rooms in this motel are arranged in a sort of half-square / horseshoe arrangement with the swimming pool in the middle. This motel seems to attract a lot of migrant immigrant workers, who spent a lot of time out on the balconies and staircases using their phones. As a female, this made me not want to go anywhere near the pool, even if I did have any peace of mind that it was cleaner than my room, which I didn't. On the positive side, I will say that the people who worked here were very nice. But their motel needs some serious help. I can't honestly say it is the worst I've ever stayed in, as there *have* been worse places. But this is definitely in my top 5 worst I've ever spent money on. As widespread and well-known as the Motel 6 chain is, I find it hard to believe that they couldn't afford to invest some money in this particular one to bring it up to livable standards, or at least get rid of the roach infestation. Perhaps that would mean condemning the building, though. This health hazard of a motel was totally not worth the money I paid to stay there. When was said and done, I paid nearly $20 more than the price advertised online ($45 vs. 65 total) Stupid me. There are much nicer hotels in the area for cheaper or the same price I paid to stay in this dump. It would've been safer and cleaner to sleep in my car in a truck stop.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I will start out by saying I've stayed in many a Motel 6 in my time, and I thoroughly understand that they are a budget motel and will never be like staying in a Hampton Inn. However, this particular Motel 6 is a prime example of why many people perceive the Motel 6 chain as an awful establishment they don't want to go anywhere near. 
+First of all, the first room I was given wouldn't even unlock with the card key I was given. The desk clerk couldn't get it to open either. I was given a second room. After spending no more than an hour in there, I noticed the toilet tank would just randomly start running water from time to time, which was loud and annoying. I knew I wouldn't be able to sleep with that problem, so I asked for yet another room. Upon initial inspection, my third room seemed to have nothing wrong with it. Not so. As soon as the sun went down, I noticed a bug scurrying across the floor. After killing it with my shoe I saw it was a cockroach. Caution lights went off in my mind as I know darn well that there is never just *one* cockroach. I totally get that east Texas has a lot of bugs, but this was ridiculous. I used a cardboard pizza box as a swatter to kill **dozens** of cockroaches the one night I...I will start out by saying I've stayed in many a Motel 6 in my time, and I thoroughly understand that they are a budget motel and will never be like staying in a Hampton Inn. However, this particular Motel 6 is a prime example of why many people perceive the Motel 6 chain as an awful establishment they don't want to go anywhere near. First of all, the first room I was given wouldn't even unlock with the card key I was given. The desk clerk couldn't get it to open either. I was given a second room. After spending no more than an hour in there, I noticed the toilet tank would just randomly start running water from time to time, which was loud and annoying. I knew I wouldn't be able to sleep with that problem, so I asked for yet another room. Upon initial inspection, my third room seemed to have nothing wrong with it. Not so. As soon as the sun went down, I noticed a bug scurrying across the floor. After killing it with my shoe I saw it was a cockroach. Caution lights went off in my mind as I know darn well that there is never just *one* cockroach. I totally get that east Texas has a lot of bugs, but this was ridiculous. I used a cardboard pizza box as a swatter to kill **dozens** of cockroaches the one night I stayed here. I didn't want to touch the floor for fear it was a health hazard. I didn't even want to leave my shoes on the floor. I didn't sleep well at all due to being unnerved by the roach infestation. Before leaving, I shook out all my clothes in my suitcase just in case any roaches had found their way up in there. In addition to that, other problems I noted were that the freezer in the mini-fridge did not keep anything frozen except for the massive amount of freezer ice that needed to be defrosted. All of the rooms in this motel are arranged in a sort of half-square / horseshoe arrangement with the swimming pool in the middle. This motel seems to attract a lot of migrant immigrant workers, who spent a lot of time out on the balconies and staircases using their phones. As a female, this made me not want to go anywhere near the pool, even if I did have any peace of mind that it was cleaner than my room, which I didn't. On the positive side, I will say that the people who worked here were very nice. But their motel needs some serious help. I can't honestly say it is the worst I've ever stayed in, as there *have* been worse places. But this is definitely in my top 5 worst I've ever spent money on. As widespread and well-known as the Motel 6 chain is, I find it hard to believe that they couldn't afford to invest some money in this particular one to bring it up to livable standards, or at least get rid of the roach infestation. Perhaps that would mean condemning the building, though. This health hazard of a motel was totally not worth the money I paid to stay there. When was said and done, I paid nearly $20 more than the price advertised online ($45 vs. 65 total) Stupid me. There are much nicer hotels in the area for cheaper or the same price I paid to stay in this dump. It would've been safer and cleaner to sleep in my car in a truck stop.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r355878262-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>355878262</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Well run,very clean, friendly staff and budget motel</t>
+  </si>
+  <si>
+    <t>Clean budget motel,Rooms are modernized to the quality of large standards chains. rooms had flat screen tv, Mini fridge and microwave. Free wifi provided and worked good.If you looking for hotel with big lobby, this motel is not for you. If you need a quite, clean room at great price, hit this place up.Considering the price, the overall is quite satisfactory.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r347737864-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>347737864</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>dump</t>
+  </si>
+  <si>
+    <t>for the price I paid for a room at days inn I got twice as much more for my money and comfort than the same price I paid for this one smelled bad, the beds were like concrete no carpet on floors and the a/c would come on and off with a loud noise to wake you up. not to mention the people next door drinking and having a party till 6am</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r331630676-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>331630676</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Great Place to stay !!</t>
+  </si>
+  <si>
+    <t>I like staying there. I have stayed here before and mu experience is always great !! Updated clean and affordable rooms. The staff here is great. I will definitely staying here again. There is a restaurant  right next to motel, which is very convenient for dinner and breakfast.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r326800717-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>326800717</t>
+  </si>
+  <si>
+    <t>11/14/2015</t>
+  </si>
+  <si>
+    <t>Pleasant Stay at very reasonable rate</t>
+  </si>
+  <si>
+    <t>I had a stay of 3 days at Motel 6, cleveland, It was a very pleasant stay. Newly renovated furnished, a very friendly staff, rooms are super clean and its situated in a very quite and calm place. There is walmart behind the motel which is a huge convenience. Definitely recommend.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r326776323-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>326776323</t>
+  </si>
+  <si>
+    <t>Well worth the price</t>
+  </si>
+  <si>
+    <t>The rooms are recently renovated and very clean. The paint makes the room feel even more spacious, the laminate or vinyl wood floor is also a nice touch. After sitting in the room I noticed that the outlets and TV wall mount weren't level which isn't a big deal, just poor craftsmanship. On the other hand the bed was hard as a rock cheap memory foam pads could fix that though which is my only recomendation. For the price it's a nice room</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r257456170-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>257456170</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Touring cyclists</t>
+  </si>
+  <si>
+    <t>The room was generally clean.  We asked for a non-smoking room, there was a definite  musty / smoky odor to in the air.  The bedding was clean, but did show cigarette burns in both the top sheet and bed spread.  The towels could do with being replaced.  There is no breakfast, but coffee is available in the office. We didn't ask to change our room because we arrived a day later than reserved and were not charged any extra fees, we did call before hand.  Over all it is an O.K place to stay.  Closed to Wal-mart, five minute walk.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r252324811-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>252324811</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>Decent budget motel</t>
+  </si>
+  <si>
+    <t>Staying here tonight. As I type this I am listening to the guy in the room next to me talking on the phone telling anyone who will listen his marital problems. The walls are very thin. Room was clean but the air freshener they used stinks. Good room for the price just hope u don't have noisey neighbors. No coffee maker in room either</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r249555693-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>249555693</t>
+  </si>
+  <si>
+    <t>01/16/2015</t>
+  </si>
+  <si>
+    <t>An OK place to stay</t>
+  </si>
+  <si>
+    <t>I was in and out in the dark so I didn't intereact with many people.  Desk clerk was decent and I got a room that was OK.  It was a long drive and I was ready for a bed in a clean room.  I would stay there again.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r96858588-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>96858588</t>
+  </si>
+  <si>
+    <t>02/16/2011</t>
+  </si>
+  <si>
+    <t>The staff and owner were horrible!</t>
+  </si>
+  <si>
+    <t>Our company was going to stay at the American Inn for 5 days but unfortunately we were greatly surprised by the way that we were treated. The staff was very hostile towards our crew of men and they entered our rooms after being asked not to. They were rude and we were told that if we had visitors that we had to pay extra on the side for them. After being told not to enter the rooms they came and banged on our door for 30 minutes along with calling the room at the same time. After being told through the door that no room service was needed, I was demanded by a young lady to, "OPEN THE DOOR NOW!". When I opened the door I was told that I was not supposed to be there and that the guy who got the room would have to come see her immediately. While she was at my door there was a tall guy standing not even 6 inches from my door just staring at me. It was really intimidating and I felt very uncomfortable. I was also informed by the woman that she would be back in the morning. When the crew supervisor went to resolve the matter and explain that he did not appreciate the disrespect that they had shown all of us we were told to leave and that they did not need the money that they would have...Our company was going to stay at the American Inn for 5 days but unfortunately we were greatly surprised by the way that we were treated. The staff was very hostile towards our crew of men and they entered our rooms after being asked not to. They were rude and we were told that if we had visitors that we had to pay extra on the side for them. After being told not to enter the rooms they came and banged on our door for 30 minutes along with calling the room at the same time. After being told through the door that no room service was needed, I was demanded by a young lady to, "OPEN THE DOOR NOW!". When I opened the door I was told that I was not supposed to be there and that the guy who got the room would have to come see her immediately. While she was at my door there was a tall guy standing not even 6 inches from my door just staring at me. It was really intimidating and I felt very uncomfortable. I was also informed by the woman that she would be back in the morning. When the crew supervisor went to resolve the matter and explain that he did not appreciate the disrespect that they had shown all of us we were told to leave and that they did not need the money that they would have gotten from allowing us to stay. There is no complimentary breakfast and if you stand outside to chat you better be prepared to be stared down by the owner. The owner of this place also owns the La Quinta and you can probably expect the same sorry service there as well. They are currently being taken off of CLC because of our experience there. We will NEVER be back to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>Our company was going to stay at the American Inn for 5 days but unfortunately we were greatly surprised by the way that we were treated. The staff was very hostile towards our crew of men and they entered our rooms after being asked not to. They were rude and we were told that if we had visitors that we had to pay extra on the side for them. After being told not to enter the rooms they came and banged on our door for 30 minutes along with calling the room at the same time. After being told through the door that no room service was needed, I was demanded by a young lady to, "OPEN THE DOOR NOW!". When I opened the door I was told that I was not supposed to be there and that the guy who got the room would have to come see her immediately. While she was at my door there was a tall guy standing not even 6 inches from my door just staring at me. It was really intimidating and I felt very uncomfortable. I was also informed by the woman that she would be back in the morning. When the crew supervisor went to resolve the matter and explain that he did not appreciate the disrespect that they had shown all of us we were told to leave and that they did not need the money that they would have...Our company was going to stay at the American Inn for 5 days but unfortunately we were greatly surprised by the way that we were treated. The staff was very hostile towards our crew of men and they entered our rooms after being asked not to. They were rude and we were told that if we had visitors that we had to pay extra on the side for them. After being told not to enter the rooms they came and banged on our door for 30 minutes along with calling the room at the same time. After being told through the door that no room service was needed, I was demanded by a young lady to, "OPEN THE DOOR NOW!". When I opened the door I was told that I was not supposed to be there and that the guy who got the room would have to come see her immediately. While she was at my door there was a tall guy standing not even 6 inches from my door just staring at me. It was really intimidating and I felt very uncomfortable. I was also informed by the woman that she would be back in the morning. When the crew supervisor went to resolve the matter and explain that he did not appreciate the disrespect that they had shown all of us we were told to leave and that they did not need the money that they would have gotten from allowing us to stay. There is no complimentary breakfast and if you stand outside to chat you better be prepared to be stared down by the owner. The owner of this place also owns the La Quinta and you can probably expect the same sorry service there as well. They are currently being taken off of CLC because of our experience there. We will NEVER be back to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r83005652-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>83005652</t>
+  </si>
+  <si>
+    <t>10/11/2010</t>
+  </si>
+  <si>
+    <t>Good VAlue but Strange..</t>
+  </si>
+  <si>
+    <t>Stayed for 5 days in August. Got a very good deal for 5 days approx 50 Total per night. Room was clean but not enough towels. Lamp next to table was stained and broken. When I would leave they would enter room and turn off AC which I found intrusive. The breakfast was cheap..sweetrolls and coffee on table in tiny lobby.  Weird truck full of garbage parked dead center in front of pool. Lots of weird people although they did their best to put us away from them.  No work out room. I really did not feel safe.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r30934239-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>30934239</t>
+  </si>
+  <si>
+    <t>05/27/2009</t>
+  </si>
+  <si>
+    <t>very bed hotel, full of trashy people</t>
+  </si>
+  <si>
+    <t>i stayed at the hotel, hotel it self is very old, feels like trash. desk clerk were rude. swimming pool was dirty, rooms condition was very bed, room was smelling bed.it feels like your are staying in some getto motel.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +786,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +818,833 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_488.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_488.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,61 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r588614386-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>55639</t>
+  </si>
+  <si>
+    <t>575773</t>
+  </si>
+  <si>
+    <t>588614386</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Would not return</t>
+  </si>
+  <si>
+    <t>The room was O.K. With minimal supplies. The building was located between another motel and a restaurant. I guess it was fine if you liked walking to breakfast. I don’t think I will go back my next trip by.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Cleveland, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>The room was O.K. With minimal supplies. The building was located between another motel and a restaurant. I guess it was fine if you liked walking to breakfast. I don’t think I will go back my next trip by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r512444843-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>512444843</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Paid $50.84 CDL trucker rate..Clean room..102 Hard bed.</t>
+  </si>
+  <si>
+    <t>This place was clean..No problems with management..I stayed in room-102 singel bed it was a hard bed too..Tile floor no carpet..Had WI-FI I never tried it...Only coffee in the morning..There is truck and trailer parking..I was in a corner unit next to truck parking..Water was hot but you need to run it awhile to get hot..Flat screen tv...I paid $50.84 total for one night..</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r396417246-Motel_6_Cleveland-Cleveland_Texas.html</t>
-  </si>
-  <si>
-    <t>55639</t>
-  </si>
-  <si>
-    <t>575773</t>
   </si>
   <si>
     <t>396417246</t>
@@ -227,6 +272,42 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r345527928-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>345527928</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>Clean and decent budget motel. The room I stayed in  has HDTV, mini fridge, very comfortable bed and the room has the view of the pool. Next to the Hot Biscuit for breakfast, lunch, or dinner. Would stay here again.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r341444329-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>341444329</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant surprise </t>
+  </si>
+  <si>
+    <t>I don't usually stay at a motel 6 because most have become aged and run down; this one had good reviews so I was willing to give it a try. It had a fairly recent remodel and could still smell the fresh paint. The room was huge, and pretty contemporary. The flooring was done in laminate rather than carpet. They do allow pets, and do not charge a pet fee. I would stay there again if the need arises.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r331630676-Motel_6_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
@@ -242,9 +323,6 @@
     <t>I like staying there. I have stayed here before and mu experience is always great !! Updated clean and affordable rooms. The staff here is great. I will definitely staying here again. There is a restaurant  right next to motel, which is very convenient for dinner and breakfast.</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r326800717-Motel_6_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
@@ -281,7 +359,43 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r306537167-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>306537167</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Wonderful stay very reasonable rate</t>
+  </si>
+  <si>
+    <t>I stayed with my family while on my way to Houston, it's very nice and clean place to stay, also room is recently renovated.. Staff is so helpful and informative..also they offer coffee at morning.... I recommend to everyone who visiting Cleveland,TX thank you so much for my enjoyable stay.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r262992443-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>262992443</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Forget them if your in town for a dog show.</t>
+  </si>
+  <si>
+    <t>After being told we couldn't stay at LaQuinta next door for having 5 dogs, we waited an hour while desk clerk called other hotels in the area to get us in for the night. They didn't  have a room that night. She then knowing how many dogs we had, and the fact they are show dogs and would be crated during out stay, gave us reservations for the next day. Check in the next day, only to be told after we unload up stairs they won't accept or dogs, who are quiet and in crates. Walls had slashes in the wall paper, during bred bug inspection we found dead ants, , slashed box springs, and stains on side of mattress and box springs. Won't be back with or without dogs. Rude staff, other than the may at night so tried to help.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>After being told we couldn't stay at LaQuinta next door for having 5 dogs, we waited an hour while desk clerk called other hotels in the area to get us in for the night. They didn't  have a room that night. She then knowing how many dogs we had, and the fact they are show dogs and would be crated during out stay, gave us reservations for the next day. Check in the next day, only to be told after we unload up stairs they won't accept or dogs, who are quiet and in crates. Walls had slashes in the wall paper, during bred bug inspection we found dead ants, , slashed box springs, and stains on side of mattress and box springs. Won't be back with or without dogs. Rude staff, other than the may at night so tried to help.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r257456170-Motel_6_Cleveland-Cleveland_Texas.html</t>
@@ -299,9 +413,6 @@
     <t>The room was generally clean.  We asked for a non-smoking room, there was a definite  musty / smoky odor to in the air.  The bedding was clean, but did show cigarette burns in both the top sheet and bed spread.  The towels could do with being replaced.  There is no breakfast, but coffee is available in the office. We didn't ask to change our room because we arrived a day later than reserved and were not charged any extra fees, we did call before hand.  Over all it is an O.K place to stay.  Closed to Wal-mart, five minute walk.</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r252324811-Motel_6_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
@@ -336,6 +447,42 @@
   </si>
   <si>
     <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r213827262-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>213827262</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>Inexpensive Old Motel</t>
+  </si>
+  <si>
+    <t>If you are not too particular about the size of your room and do not care about the condition of the building, then for just a sleeping room this place if OK. I have seen worse rooms that cost 20 to 30 dollars more! The room had a musty odor to it - likely do to the fact that the AC unit had never been cleaned. But I carry a spray bottle of room deodorizer with me and I took care of that. The walls looked like that were on their sixth coat of paint and a paper border had been installed along the wall at the ceiling, but it had been cut poorly and looked a little ragged. The room seemed clean and the WiFi worked great, again more than I can say for some more expensive places I have stayed! A pole lamp had a shade that was not attached and hung at a n angle, kind of like a two bit motel!  I wish these motels that used the AC in wall under the window would find quieter units. Rarely have I found one that is not noisey. There is no breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you are not too particular about the size of your room and do not care about the condition of the building, then for just a sleeping room this place if OK. I have seen worse rooms that cost 20 to 30 dollars more! The room had a musty odor to it - likely do to the fact that the AC unit had never been cleaned. But I carry a spray bottle of room deodorizer with me and I took care of that. The walls looked like that were on their sixth coat of paint and a paper border had been installed along the wall at the ceiling, but it had been cut poorly and looked a little ragged. The room seemed clean and the WiFi worked great, again more than I can say for some more expensive places I have stayed! A pole lamp had a shade that was not attached and hung at a n angle, kind of like a two bit motel!  I wish these motels that used the AC in wall under the window would find quieter units. Rarely have I found one that is not noisey. There is no breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r113131076-Motel_6_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>113131076</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Decent enough for a budget motel</t>
+  </si>
+  <si>
+    <t>Pretty typical budget motel, but be sure to keep your bolt on if you don't want housekeeping to walk in after one knock. And they don't like for you to decline housekeeping AT ALL.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d575773-r96858588-Motel_6_Cleveland-Cleveland_Texas.html</t>
@@ -927,31 +1074,25 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
         <v>2</v>
       </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
       <c r="Y2" t="s">
         <v>54</v>
       </c>
@@ -990,7 +1131,7 @@
         <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>60</v>
@@ -1000,9 +1141,11 @@
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1060,14 +1203,16 @@
         <v>68</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1075,7 +1220,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1091,7 +1236,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1100,35 +1245,35 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1136,7 +1281,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1152,7 +1297,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1161,37 +1306,35 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1199,7 +1342,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1215,7 +1358,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1224,39 +1367,43 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1272,7 +1419,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1281,43 +1428,39 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -1333,7 +1476,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1342,37 +1485,35 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="n">
         <v>4</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1380,7 +1521,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1537,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1405,37 +1546,37 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1443,7 +1584,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1459,7 +1600,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1468,49 +1609,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1547,30 +1678,20 @@
         <v>117</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
         <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
@@ -1620,23 +1741,17 @@
         <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1644,7 +1759,529 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>142</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
